--- a/REGULAR/CCR/MATIENZO, NORMITA.xlsx
+++ b/REGULAR/CCR/MATIENZO, NORMITA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FDE6A-5787-432F-8A28-938AEFCBFF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="354">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1101,7 +1102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1974,7 +1975,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2018,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2082,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2142,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2208,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2271,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2369,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2428,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2493,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2536,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2611,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,7 +2797,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2863,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,7 +2921,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,7 +2987,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,7 +3043,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3118,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3161,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3226,7 +3227,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,7 +3283,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3380,7 +3381,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3443,7 +3444,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3492,7 +3493,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3509,25 +3510,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K566" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K566" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3539,12 +3540,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3553,13 +3554,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3863,7 +3864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3873,7 +3874,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3881,34 +3882,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4140" topLeftCell="A526" activePane="bottomLeft"/>
+      <pane ySplit="4140" topLeftCell="A538" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K541" sqref="K541"/>
+      <selection pane="bottomLeft" activeCell="K545" sqref="K545"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3929,7 +3930,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3949,7 +3950,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3971,7 +3972,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3979,7 +3980,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3992,7 +3993,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4009,7 +4010,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4044,7 +4045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4053,7 +4054,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>135.79099999999994</v>
+        <v>138.29099999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4063,12 +4064,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>162.125</v>
+        <v>163.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -4090,7 +4091,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36008</v>
@@ -4141,7 +4142,7 @@
         <v>36032</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -4161,7 +4162,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f>EDATE(A12,1)</f>
         <v>36039</v>
@@ -4188,7 +4189,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" ref="A15" si="0">EDATE(A14,1)</f>
         <v>36069</v>
@@ -4215,7 +4216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>65</v>
@@ -4226,7 +4227,7 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>135.79099999999994</v>
+        <v>138.29099999999994</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="13" t="str">
@@ -4236,12 +4237,12 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>162.125</v>
+        <v>163.625</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f>EDATE(A15,1)</f>
         <v>36100</v>
@@ -4268,7 +4269,7 @@
         <v>36126</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="15" t="s">
         <v>55</v>
@@ -4288,7 +4289,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f>EDATE(A17,1)</f>
         <v>36130</v>
@@ -4309,7 +4310,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>56</v>
       </c>
@@ -4327,7 +4328,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f>EDATE(A19,1)</f>
         <v>36161</v>
@@ -4354,7 +4355,7 @@
         <v>36185</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" ref="A22:A117" si="1">EDATE(A21,1)</f>
         <v>36192</v>
@@ -4381,7 +4382,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>68</v>
@@ -4401,7 +4402,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f>EDATE(A22,1)</f>
         <v>36220</v>
@@ -4426,7 +4427,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>36251</v>
@@ -4453,7 +4454,7 @@
         <v>36263</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>48</v>
@@ -4475,7 +4476,7 @@
         <v>36269</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>70</v>
@@ -4495,7 +4496,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f>EDATE(A25,1)</f>
         <v>36281</v>
@@ -4522,7 +4523,7 @@
         <v>36292</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>36312</v>
@@ -4549,7 +4550,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -4576,7 +4577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -4597,7 +4598,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -4622,7 +4623,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -4647,7 +4648,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -4674,7 +4675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -4699,7 +4700,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>57</v>
       </c>
@@ -4717,7 +4718,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>36526</v>
@@ -4744,7 +4745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>46</v>
@@ -4764,7 +4765,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>82</v>
@@ -4784,7 +4785,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A37,1)</f>
         <v>36557</v>
@@ -4811,7 +4812,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>85</v>
@@ -4831,7 +4832,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>36586</v>
@@ -4858,7 +4859,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>87</v>
@@ -4878,7 +4879,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A42,1)</f>
         <v>36617</v>
@@ -4903,7 +4904,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -4928,7 +4929,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -4949,7 +4950,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -4976,7 +4977,7 @@
         <v>36721</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>90</v>
@@ -4996,7 +4997,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>36739</v>
@@ -5023,7 +5024,7 @@
         <v>36745</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>91</v>
@@ -5045,7 +5046,7 @@
         <v>36766</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>92</v>
@@ -5065,7 +5066,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A49,1)</f>
         <v>36770</v>
@@ -5086,7 +5087,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -5113,7 +5114,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -5135,7 +5136,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>82</v>
@@ -5155,7 +5156,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A53,1)</f>
         <v>36831</v>
@@ -5180,7 +5181,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" si="1"/>
         <v>36861</v>
@@ -5205,7 +5206,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>58</v>
       </c>
@@ -5223,7 +5224,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f>EDATE(A57,1)</f>
         <v>36892</v>
@@ -5250,7 +5251,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>77</v>
@@ -5272,7 +5273,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f>EDATE(A59,1)</f>
         <v>36923</v>
@@ -5299,7 +5300,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="1"/>
         <v>36951</v>
@@ -5326,7 +5327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="1"/>
         <v>36982</v>
@@ -5347,7 +5348,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="1"/>
         <v>37012</v>
@@ -5374,7 +5375,7 @@
         <v>37019</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -5395,7 +5396,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -5422,7 +5423,7 @@
         <v>37074</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>48</v>
@@ -5444,7 +5445,7 @@
         <v>37088</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>83</v>
@@ -5466,7 +5467,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f>EDATE(A66,1)</f>
         <v>37104</v>
@@ -5493,7 +5494,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -5514,7 +5515,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -5541,7 +5542,7 @@
         <v>37181</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" si="1"/>
         <v>37196</v>
@@ -5562,7 +5563,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" si="1"/>
         <v>37226</v>
@@ -5583,7 +5584,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="47" t="s">
         <v>59</v>
       </c>
@@ -5601,7 +5602,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f>EDATE(A73,1)</f>
         <v>37257</v>
@@ -5628,7 +5629,7 @@
         <v>37260</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>48</v>
@@ -5650,7 +5651,7 @@
         <v>37271</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>50</v>
@@ -5672,7 +5673,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>37288</v>
@@ -5699,7 +5700,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -5726,7 +5727,7 @@
         <v>37328</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>77</v>
@@ -5748,7 +5749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>37347</v>
@@ -5775,7 +5776,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -5802,7 +5803,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -5822,7 +5823,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f>EDATE(A82,1)</f>
         <v>37408</v>
@@ -5849,7 +5850,7 @@
         <v>37424</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f t="shared" si="1"/>
         <v>37438</v>
@@ -5876,7 +5877,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -5903,7 +5904,7 @@
         <v>37470</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -5930,7 +5931,7 @@
         <v>37519</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>48</v>
@@ -5952,7 +5953,7 @@
         <v>37515</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>37530</v>
@@ -5979,7 +5980,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>77</v>
@@ -6001,7 +6002,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f>EDATE(A89,1)</f>
         <v>37561</v>
@@ -6028,7 +6029,7 @@
         <v>37567</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="1"/>
         <v>37591</v>
@@ -6055,7 +6056,7 @@
         <v>37593</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>91</v>
@@ -6077,7 +6078,7 @@
         <v>37610</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>48</v>
@@ -6099,7 +6100,7 @@
         <v>37601</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="47" t="s">
         <v>60</v>
       </c>
@@ -6117,7 +6118,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f>EDATE(A92,1)</f>
         <v>37622</v>
@@ -6144,7 +6145,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -6171,7 +6172,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -6196,7 +6197,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>66</v>
@@ -6218,7 +6219,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>37712</v>
@@ -6239,7 +6240,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="1"/>
         <v>37742</v>
@@ -6260,7 +6261,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -6287,7 +6288,7 @@
         <v>37789</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -6314,7 +6315,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="1"/>
         <v>37834</v>
@@ -6341,7 +6342,7 @@
         <v>37862</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -6366,7 +6367,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -6389,7 +6390,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>117</v>
@@ -6409,7 +6410,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f>EDATE(A106,1)</f>
         <v>37926</v>
@@ -6434,7 +6435,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -6461,7 +6462,7 @@
         <v>37972</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>77</v>
@@ -6483,7 +6484,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>119</v>
@@ -6503,7 +6504,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="47" t="s">
         <v>61</v>
       </c>
@@ -6521,7 +6522,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A109,1)</f>
         <v>37987</v>
@@ -6548,7 +6549,7 @@
         <v>37999</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>66</v>
@@ -6570,7 +6571,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>121</v>
@@ -6590,7 +6591,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f>EDATE(A113,1)</f>
         <v>38018</v>
@@ -6615,7 +6616,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="1"/>
         <v>38047</v>
@@ -6642,7 +6643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>48</v>
@@ -6664,7 +6665,7 @@
         <v>38071</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>123</v>
@@ -6684,7 +6685,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f>EDATE(A117,1)</f>
         <v>38078</v>
@@ -6711,7 +6712,7 @@
         <v>38092</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>91</v>
@@ -6733,7 +6734,7 @@
         <v>38106</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>124</v>
@@ -6753,7 +6754,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f>EDATE(A120,1)</f>
         <v>38108</v>
@@ -6778,7 +6779,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" ref="A124:A213" si="2">EDATE(A123,1)</f>
         <v>38139</v>
@@ -6805,7 +6806,7 @@
         <v>38160</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>48</v>
@@ -6827,7 +6828,7 @@
         <v>38163</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>128</v>
@@ -6847,7 +6848,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f>EDATE(A124,1)</f>
         <v>38169</v>
@@ -6874,7 +6875,7 @@
         <v>38182</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>52</v>
@@ -6896,7 +6897,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>48</v>
@@ -6918,7 +6919,7 @@
         <v>38188</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>77</v>
@@ -6940,7 +6941,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>90</v>
@@ -6960,7 +6961,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A127,1)</f>
         <v>38200</v>
@@ -6987,7 +6988,7 @@
         <v>38215</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>77</v>
@@ -7009,7 +7010,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>132</v>
@@ -7029,7 +7030,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>38231</v>
@@ -7056,7 +7057,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>48</v>
@@ -7078,7 +7079,7 @@
         <v>38257</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>135</v>
@@ -7098,7 +7099,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>50</v>
@@ -7120,7 +7121,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f>EDATE(A135,1)</f>
         <v>38261</v>
@@ -7147,7 +7148,7 @@
         <v>38289</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>136</v>
@@ -7167,7 +7168,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>38292</v>
@@ -7194,7 +7195,7 @@
         <v>38296</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>48</v>
@@ -7216,7 +7217,7 @@
         <v>38317</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>137</v>
@@ -7236,7 +7237,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>38322</v>
@@ -7263,7 +7264,7 @@
         <v>38327</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>50</v>
@@ -7285,7 +7286,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>138</v>
@@ -7305,7 +7306,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="47" t="s">
         <v>62</v>
       </c>
@@ -7323,7 +7324,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A144,1)</f>
         <v>38353</v>
@@ -7350,7 +7351,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -7372,7 +7373,7 @@
         <v>38380</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>48</v>
@@ -7394,7 +7395,7 @@
         <v>38376</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>141</v>
@@ -7414,7 +7415,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="48"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f>EDATE(A148,1)</f>
         <v>38384</v>
@@ -7441,7 +7442,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="2"/>
         <v>38412</v>
@@ -7468,7 +7469,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>146</v>
@@ -7490,7 +7491,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>148</v>
@@ -7512,7 +7513,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f>EDATE(A153,1)</f>
         <v>38443</v>
@@ -7537,7 +7538,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>151</v>
@@ -7557,7 +7558,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>152</v>
@@ -7577,7 +7578,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>38473</v>
@@ -7602,7 +7603,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -7629,7 +7630,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>155</v>
@@ -7649,7 +7650,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f>EDATE(A160,1)</f>
         <v>38534</v>
@@ -7676,7 +7677,7 @@
         <v>38552</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>48</v>
@@ -7698,7 +7699,7 @@
         <v>38558</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>48</v>
@@ -7720,7 +7721,7 @@
         <v>38559</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>156</v>
@@ -7740,7 +7741,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="48"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f>EDATE(A162,1)</f>
         <v>38565</v>
@@ -7767,7 +7768,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>158</v>
@@ -7789,7 +7790,7 @@
         <v>38582</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>48</v>
@@ -7811,7 +7812,7 @@
         <v>38594</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>159</v>
@@ -7831,7 +7832,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f>EDATE(A166,1)</f>
         <v>38596</v>
@@ -7858,7 +7859,7 @@
         <v>38610</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>77</v>
@@ -7880,7 +7881,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>158</v>
@@ -7902,7 +7903,7 @@
         <v>38629</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>160</v>
@@ -7922,7 +7923,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="48"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f>EDATE(A170,1)</f>
         <v>38626</v>
@@ -7947,7 +7948,7 @@
         <v>38639</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>162</v>
@@ -7967,7 +7968,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>38657</v>
@@ -7992,7 +7993,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -8019,7 +8020,7 @@
         <v>38691</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>164</v>
@@ -8039,7 +8040,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="47" t="s">
         <v>63</v>
       </c>
@@ -8057,7 +8058,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A177,1)</f>
         <v>38718</v>
@@ -8084,7 +8085,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>48</v>
@@ -8106,7 +8107,7 @@
         <v>38743</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>166</v>
@@ -8126,7 +8127,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A180,1)</f>
         <v>38749</v>
@@ -8153,7 +8154,7 @@
         <v>38761</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>48</v>
@@ -8175,7 +8176,7 @@
         <v>38771</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>48</v>
@@ -8197,7 +8198,7 @@
         <v>38776</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>168</v>
@@ -8217,7 +8218,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="48"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f>EDATE(A183,1)</f>
         <v>38777</v>
@@ -8244,7 +8245,7 @@
         <v>38785</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>87</v>
@@ -8264,7 +8265,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>169</v>
@@ -8284,7 +8285,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f>EDATE(A187,1)</f>
         <v>38808</v>
@@ -8311,7 +8312,7 @@
         <v>38842</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>87</v>
@@ -8331,7 +8332,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>87</v>
@@ -8351,7 +8352,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>171</v>
@@ -8371,7 +8372,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f>EDATE(A190,1)</f>
         <v>38838</v>
@@ -8396,7 +8397,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -8423,7 +8424,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>176</v>
@@ -8443,7 +8444,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f>EDATE(A195,1)</f>
         <v>38899</v>
@@ -8470,7 +8471,7 @@
         <v>38909</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>48</v>
@@ -8492,7 +8493,7 @@
         <v>38911</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>177</v>
@@ -8512,7 +8513,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f>EDATE(A197,1)</f>
         <v>38930</v>
@@ -8537,7 +8538,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -8564,7 +8565,7 @@
         <v>38987</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>179</v>
@@ -8584,7 +8585,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>38991</v>
@@ -8611,7 +8612,7 @@
         <v>38999</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>48</v>
@@ -8633,7 +8634,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>180</v>
@@ -8653,7 +8654,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f>EDATE(A203,1)</f>
         <v>39022</v>
@@ -8680,7 +8681,7 @@
         <v>39037</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>48</v>
@@ -8702,7 +8703,7 @@
         <v>39042</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>48</v>
@@ -8724,7 +8725,7 @@
         <v>39066</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>181</v>
@@ -8744,7 +8745,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="48"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f>EDATE(A206,1)</f>
         <v>39052</v>
@@ -8769,7 +8770,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="47" t="s">
         <v>64</v>
       </c>
@@ -8787,7 +8788,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39083</v>
@@ -8812,7 +8813,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="2"/>
         <v>39114</v>
@@ -8839,7 +8840,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>184</v>
@@ -8857,12 +8858,12 @@
       <c r="H214" s="39"/>
       <c r="I214" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>162.125</v>
+        <v>163.625</v>
       </c>
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>39142</v>
@@ -8889,7 +8890,7 @@
         <v>39171</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>87</v>
@@ -8909,7 +8910,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>186</v>
@@ -8929,7 +8930,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>39173</v>
@@ -8954,7 +8955,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" ref="A219:A318" si="3">EDATE(A218,1)</f>
         <v>39203</v>
@@ -8979,7 +8980,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" si="3"/>
         <v>39234</v>
@@ -9006,7 +9007,7 @@
         <v>39260</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>48</v>
@@ -9028,7 +9029,7 @@
         <v>39262</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>190</v>
@@ -9048,7 +9049,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>39264</v>
@@ -9073,7 +9074,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="3"/>
         <v>39295</v>
@@ -9098,7 +9099,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f t="shared" si="3"/>
         <v>39326</v>
@@ -9123,7 +9124,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="3"/>
         <v>39356</v>
@@ -9148,7 +9149,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="3"/>
         <v>39387</v>
@@ -9173,7 +9174,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="3"/>
         <v>39417</v>
@@ -9198,7 +9199,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>196</v>
@@ -9218,7 +9219,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="47" t="s">
         <v>197</v>
       </c>
@@ -9236,7 +9237,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f>EDATE(A228,1)</f>
         <v>39448</v>
@@ -9263,7 +9264,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>181</v>
@@ -9283,7 +9284,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f>EDATE(A231,1)</f>
         <v>39479</v>
@@ -9310,7 +9311,7 @@
         <v>39497</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>213</v>
@@ -9330,7 +9331,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="48"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>39508</v>
@@ -9355,7 +9356,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="3"/>
         <v>39539</v>
@@ -9380,7 +9381,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="3"/>
         <v>39569</v>
@@ -9405,7 +9406,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="3"/>
         <v>39600</v>
@@ -9432,7 +9433,7 @@
         <v>39610</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="15" t="s">
         <v>218</v>
@@ -9452,7 +9453,7 @@
       <c r="J239" s="12"/>
       <c r="K239" s="49"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A238,1)</f>
         <v>39630</v>
@@ -9477,7 +9478,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="3"/>
         <v>39661</v>
@@ -9498,7 +9499,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="3"/>
         <v>39692</v>
@@ -9523,7 +9524,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f t="shared" si="3"/>
         <v>39722</v>
@@ -9550,7 +9551,7 @@
         <v>39738</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>222</v>
@@ -9570,7 +9571,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39753</v>
@@ -9597,7 +9598,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>151</v>
@@ -9617,7 +9618,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>90</v>
@@ -9637,7 +9638,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f>EDATE(A245,1)</f>
         <v>39783</v>
@@ -9662,7 +9663,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="47" t="s">
         <v>198</v>
       </c>
@@ -9680,7 +9681,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>39814</v>
@@ -9707,7 +9708,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>90</v>
@@ -9727,7 +9728,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>39845</v>
@@ -9752,7 +9753,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f t="shared" si="3"/>
         <v>39873</v>
@@ -9777,7 +9778,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>79</v>
@@ -9797,7 +9798,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f>EDATE(A253,1)</f>
         <v>39904</v>
@@ -9824,7 +9825,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>48</v>
@@ -9846,7 +9847,7 @@
         <v>39920</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>39934</v>
@@ -9867,7 +9868,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" si="3"/>
         <v>39965</v>
@@ -9888,7 +9889,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="3"/>
         <v>39995</v>
@@ -9909,7 +9910,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" si="3"/>
         <v>40026</v>
@@ -9930,7 +9931,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="3"/>
         <v>40057</v>
@@ -9951,7 +9952,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f t="shared" si="3"/>
         <v>40087</v>
@@ -9972,7 +9973,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f t="shared" si="3"/>
         <v>40118</v>
@@ -9993,7 +9994,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f t="shared" si="3"/>
         <v>40148</v>
@@ -10014,7 +10015,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="47" t="s">
         <v>199</v>
       </c>
@@ -10032,7 +10033,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f>EDATE(A264,1)</f>
         <v>40179</v>
@@ -10053,7 +10054,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="3"/>
         <v>40210</v>
@@ -10080,7 +10081,7 @@
         <v>40224</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>48</v>
@@ -10102,7 +10103,7 @@
         <v>40221</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f>EDATE(A267,1)</f>
         <v>40238</v>
@@ -10123,7 +10124,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f t="shared" si="3"/>
         <v>40269</v>
@@ -10150,7 +10151,7 @@
         <v>40297</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A270,1)</f>
         <v>40299</v>
@@ -10175,7 +10176,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>48</v>
@@ -10197,7 +10198,7 @@
         <v>40312</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>87</v>
@@ -10217,7 +10218,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A271,1)</f>
         <v>40330</v>
@@ -10244,7 +10245,7 @@
         <v>40357</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f t="shared" si="3"/>
         <v>40360</v>
@@ -10271,7 +10272,7 @@
         <v>40385</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f t="shared" si="3"/>
         <v>40391</v>
@@ -10292,7 +10293,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f t="shared" si="3"/>
         <v>40422</v>
@@ -10317,7 +10318,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="3"/>
         <v>40452</v>
@@ -10344,7 +10345,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>236</v>
@@ -10364,7 +10365,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>40483</v>
@@ -10389,7 +10390,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f t="shared" si="3"/>
         <v>40513</v>
@@ -10416,7 +10417,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>158</v>
@@ -10438,7 +10439,7 @@
         <v>40529</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>77</v>
@@ -10460,7 +10461,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="47" t="s">
         <v>200</v>
       </c>
@@ -10478,7 +10479,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f>EDATE(A281,1)</f>
         <v>40544</v>
@@ -10503,7 +10504,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>48</v>
@@ -10525,7 +10526,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>233</v>
@@ -10545,7 +10546,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A285,1)</f>
         <v>40575</v>
@@ -10572,7 +10573,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>48</v>
@@ -10594,7 +10595,7 @@
         <v>40575</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -10616,7 +10617,7 @@
         <v>40589</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f>EDATE(A288,1)</f>
         <v>40603</v>
@@ -10641,7 +10642,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>240</v>
@@ -10661,7 +10662,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>40634</v>
@@ -10686,7 +10687,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>243</v>
@@ -10706,7 +10707,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A293,1)</f>
         <v>40664</v>
@@ -10733,7 +10734,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>223</v>
@@ -10755,7 +10756,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>244</v>
@@ -10775,7 +10776,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A295,1)</f>
         <v>40695</v>
@@ -10800,7 +10801,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A298,1)</f>
         <v>40725</v>
@@ -10827,7 +10828,7 @@
         <v>40735</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>248</v>
@@ -10847,7 +10848,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f>EDATE(A299,1)</f>
         <v>40756</v>
@@ -10872,7 +10873,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f t="shared" si="3"/>
         <v>40787</v>
@@ -10899,7 +10900,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>48</v>
@@ -10921,7 +10922,7 @@
         <v>40788</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>240</v>
@@ -10941,7 +10942,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f>EDATE(A302,1)</f>
         <v>40817</v>
@@ -10968,7 +10969,7 @@
         <v>40826</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>158</v>
@@ -10990,7 +10991,7 @@
         <v>40833</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>48</v>
@@ -11012,7 +11013,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>250</v>
@@ -11032,7 +11033,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A305,1)</f>
         <v>40848</v>
@@ -11057,7 +11058,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f t="shared" si="3"/>
         <v>40878</v>
@@ -11082,7 +11083,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="47" t="s">
         <v>201</v>
       </c>
@@ -11100,7 +11101,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>40909</v>
@@ -11127,7 +11128,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>158</v>
@@ -11149,7 +11150,7 @@
         <v>40949</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>223</v>
@@ -11171,7 +11172,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>253</v>
@@ -11191,7 +11192,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A312,1)</f>
         <v>40940</v>
@@ -11212,7 +11213,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" si="3"/>
         <v>40969</v>
@@ -11239,7 +11240,7 @@
         <v>40996</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="3"/>
         <v>41000</v>
@@ -11260,7 +11261,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" ref="A319:A433" si="4">EDATE(A318,1)</f>
         <v>41030</v>
@@ -11287,7 +11288,7 @@
         <v>41047</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>48</v>
@@ -11309,7 +11310,7 @@
         <v>41064</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f>EDATE(A319,1)</f>
         <v>41061</v>
@@ -11336,7 +11337,7 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" si="4"/>
         <v>41091</v>
@@ -11357,7 +11358,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f t="shared" si="4"/>
         <v>41122</v>
@@ -11378,7 +11379,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f t="shared" si="4"/>
         <v>41153</v>
@@ -11405,7 +11406,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" si="4"/>
         <v>41183</v>
@@ -11430,7 +11431,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="4"/>
         <v>41214</v>
@@ -11451,7 +11452,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f t="shared" si="4"/>
         <v>41244</v>
@@ -11478,7 +11479,7 @@
         <v>41257</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="47" t="s">
         <v>202</v>
       </c>
@@ -11496,7 +11497,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>41275</v>
@@ -11521,7 +11522,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="4"/>
         <v>41306</v>
@@ -11548,7 +11549,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>257</v>
@@ -11570,7 +11571,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>41334</v>
@@ -11597,7 +11598,7 @@
         <v>41334</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>48</v>
@@ -11619,7 +11620,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>87</v>
@@ -11639,7 +11640,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>87</v>
@@ -11659,7 +11660,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f>EDATE(A332,1)</f>
         <v>41365</v>
@@ -11684,7 +11685,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f t="shared" si="4"/>
         <v>41395</v>
@@ -11711,7 +11712,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f t="shared" si="4"/>
         <v>41426</v>
@@ -11738,7 +11739,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f t="shared" si="4"/>
         <v>41456</v>
@@ -11763,7 +11764,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <f t="shared" si="4"/>
         <v>41487</v>
@@ -11788,7 +11789,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f t="shared" si="4"/>
         <v>41518</v>
@@ -11815,7 +11816,7 @@
         <v>41535</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>48</v>
@@ -11837,7 +11838,7 @@
         <v>41543</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>77</v>
@@ -11859,7 +11860,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>169</v>
@@ -11879,7 +11880,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f>EDATE(A341,1)</f>
         <v>41548</v>
@@ -11904,7 +11905,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f t="shared" si="4"/>
         <v>41579</v>
@@ -11929,7 +11930,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="4"/>
         <v>41609</v>
@@ -11956,7 +11957,7 @@
         <v>41626</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>267</v>
@@ -11976,7 +11977,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="47" t="s">
         <v>203</v>
       </c>
@@ -11994,7 +11995,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f>EDATE(A347,1)</f>
         <v>41640</v>
@@ -12021,7 +12022,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>268</v>
@@ -12041,7 +12042,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f>EDATE(A350,1)</f>
         <v>41671</v>
@@ -12066,7 +12067,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <f t="shared" si="4"/>
         <v>41699</v>
@@ -12091,7 +12092,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>272</v>
@@ -12111,7 +12112,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f>EDATE(A353,1)</f>
         <v>41730</v>
@@ -12138,7 +12139,7 @@
         <v>41759</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>273</v>
@@ -12158,7 +12159,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f>EDATE(A355,1)</f>
         <v>41760</v>
@@ -12185,7 +12186,7 @@
         <v>41781</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>87</v>
@@ -12205,7 +12206,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>48</v>
@@ -12227,7 +12228,7 @@
         <v>41778</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>48</v>
@@ -12249,7 +12250,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>274</v>
@@ -12269,7 +12270,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f>EDATE(A357,1)</f>
         <v>41791</v>
@@ -12296,7 +12297,7 @@
         <v>41808</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>276</v>
@@ -12316,7 +12317,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f>EDATE(A362,1)</f>
         <v>41821</v>
@@ -12341,7 +12342,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f t="shared" si="4"/>
         <v>41852</v>
@@ -12366,7 +12367,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f t="shared" si="4"/>
         <v>41883</v>
@@ -12391,7 +12392,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f t="shared" si="4"/>
         <v>41913</v>
@@ -12416,7 +12417,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f t="shared" si="4"/>
         <v>41944</v>
@@ -12443,7 +12444,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>282</v>
@@ -12463,7 +12464,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>41974</v>
@@ -12488,7 +12489,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="47" t="s">
         <v>204</v>
       </c>
@@ -12506,7 +12507,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f>EDATE(A370,1)</f>
         <v>42005</v>
@@ -12531,7 +12532,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>285</v>
@@ -12551,7 +12552,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>42036</v>
@@ -12576,7 +12577,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="4"/>
         <v>42064</v>
@@ -12603,7 +12604,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>287</v>
@@ -12623,7 +12624,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>42095</v>
@@ -12650,7 +12651,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>289</v>
@@ -12670,7 +12671,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>42125</v>
@@ -12695,7 +12696,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>48</v>
@@ -12717,7 +12718,7 @@
         <v>42146</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>48</v>
@@ -12739,7 +12740,7 @@
         <v>42151</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>48</v>
@@ -12761,7 +12762,7 @@
         <v>42153</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>291</v>
@@ -12781,7 +12782,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f>EDATE(A379,1)</f>
         <v>42156</v>
@@ -12808,7 +12809,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>293</v>
@@ -12828,7 +12829,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f>EDATE(A384,1)</f>
         <v>42186</v>
@@ -12853,7 +12854,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="4"/>
         <v>42217</v>
@@ -12878,7 +12879,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="4"/>
         <v>42248</v>
@@ -12903,7 +12904,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f t="shared" si="4"/>
         <v>42278</v>
@@ -12928,7 +12929,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="4"/>
         <v>42309</v>
@@ -12953,7 +12954,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>48</v>
@@ -12973,7 +12974,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>278</v>
@@ -12993,7 +12994,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>42339</v>
@@ -13018,7 +13019,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>216</v>
@@ -13038,7 +13039,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="47" t="s">
         <v>205</v>
       </c>
@@ -13056,7 +13057,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f>EDATE(A393,1)</f>
         <v>42370</v>
@@ -13083,7 +13084,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>301</v>
@@ -13103,7 +13104,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f>EDATE(A396,1)</f>
         <v>42401</v>
@@ -13130,7 +13131,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>303</v>
@@ -13150,7 +13151,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>42430</v>
@@ -13177,7 +13178,7 @@
         <v>42433</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>48</v>
@@ -13199,7 +13200,7 @@
         <v>42437</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>91</v>
@@ -13221,7 +13222,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>304</v>
@@ -13241,7 +13242,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f>EDATE(A400,1)</f>
         <v>42461</v>
@@ -13268,7 +13269,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>91</v>
@@ -13290,7 +13291,7 @@
         <v>42488</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>50</v>
@@ -13312,7 +13313,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>91</v>
@@ -13334,7 +13335,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>306</v>
@@ -13354,7 +13355,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="48"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f>EDATE(A404,1)</f>
         <v>42491</v>
@@ -13379,7 +13380,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f t="shared" si="4"/>
         <v>42522</v>
@@ -13406,7 +13407,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>46</v>
@@ -13428,7 +13429,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>48</v>
@@ -13450,7 +13451,7 @@
         <v>42550</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>221</v>
@@ -13470,7 +13471,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f>EDATE(A410,1)</f>
         <v>42552</v>
@@ -13495,7 +13496,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f t="shared" si="4"/>
         <v>42583</v>
@@ -13520,7 +13521,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f t="shared" si="4"/>
         <v>42614</v>
@@ -13545,7 +13546,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="4"/>
         <v>42644</v>
@@ -13570,7 +13571,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f t="shared" si="4"/>
         <v>42675</v>
@@ -13595,7 +13596,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f t="shared" si="4"/>
         <v>42705</v>
@@ -13622,7 +13623,7 @@
         <v>42725</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>48</v>
@@ -13644,7 +13645,7 @@
         <v>42727</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>48</v>
@@ -13666,7 +13667,7 @@
         <v>42733</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>312</v>
@@ -13686,7 +13687,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="47" t="s">
         <v>206</v>
       </c>
@@ -13704,7 +13705,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <f>EDATE(A419,1)</f>
         <v>42736</v>
@@ -13729,7 +13730,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f t="shared" si="4"/>
         <v>42767</v>
@@ -13756,7 +13757,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>171</v>
@@ -13776,7 +13777,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <f>EDATE(A425,1)</f>
         <v>42795</v>
@@ -13801,7 +13802,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -13828,7 +13829,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>87</v>
@@ -13848,7 +13849,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>233</v>
@@ -13868,7 +13869,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f>EDATE(A428,1)</f>
         <v>42856</v>
@@ -13889,7 +13890,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f t="shared" si="4"/>
         <v>42887</v>
@@ -13914,7 +13915,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" si="4"/>
         <v>42917</v>
@@ -13941,7 +13942,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -13963,7 +13964,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>48</v>
@@ -13985,7 +13986,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>318</v>
@@ -14005,7 +14006,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f>EDATE(A433,1)</f>
         <v>42948</v>
@@ -14030,7 +14031,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <f t="shared" ref="A438:A509" si="5">EDATE(A437,1)</f>
         <v>42979</v>
@@ -14055,7 +14056,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f t="shared" si="5"/>
         <v>43009</v>
@@ -14082,7 +14083,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>321</v>
@@ -14102,7 +14103,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f>EDATE(A439,1)</f>
         <v>43040</v>
@@ -14123,7 +14124,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f t="shared" si="5"/>
         <v>43070</v>
@@ -14150,7 +14151,7 @@
         <v>43074</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>50</v>
@@ -14172,7 +14173,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>50</v>
@@ -14194,7 +14195,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>48</v>
@@ -14216,7 +14217,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>48</v>
@@ -14238,7 +14239,7 @@
         <v>43096</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="47" t="s">
         <v>207</v>
       </c>
@@ -14256,7 +14257,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f>EDATE(A442,1)</f>
         <v>43101</v>
@@ -14283,7 +14284,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f t="shared" si="5"/>
         <v>43132</v>
@@ -14310,7 +14311,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>48</v>
@@ -14332,7 +14333,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f>EDATE(A449,1)</f>
         <v>43160</v>
@@ -14353,7 +14354,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f t="shared" si="5"/>
         <v>43191</v>
@@ -14374,7 +14375,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f t="shared" si="5"/>
         <v>43221</v>
@@ -14401,7 +14402,7 @@
         <v>42873</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f t="shared" si="5"/>
         <v>43252</v>
@@ -14422,7 +14423,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <f t="shared" si="5"/>
         <v>43282</v>
@@ -14443,7 +14444,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <f t="shared" si="5"/>
         <v>43313</v>
@@ -14464,7 +14465,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f t="shared" si="5"/>
         <v>43344</v>
@@ -14491,7 +14492,7 @@
         <v>42996</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" si="5"/>
         <v>43374</v>
@@ -14518,7 +14519,7 @@
         <v>43037</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="5"/>
         <v>43405</v>
@@ -14539,7 +14540,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f>EDATE(A459,1)</f>
         <v>43435</v>
@@ -14566,7 +14567,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>66</v>
@@ -14588,7 +14589,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>91</v>
@@ -14610,7 +14611,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>151</v>
@@ -14630,7 +14631,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="47" t="s">
         <v>208</v>
       </c>
@@ -14648,7 +14649,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f>EDATE(A460,1)</f>
         <v>43466</v>
@@ -14669,7 +14670,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f t="shared" si="5"/>
         <v>43497</v>
@@ -14696,7 +14697,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" si="5"/>
         <v>43525</v>
@@ -14717,7 +14718,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f t="shared" si="5"/>
         <v>43556</v>
@@ -14738,7 +14739,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="5"/>
         <v>43586</v>
@@ -14765,7 +14766,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="5"/>
         <v>43617</v>
@@ -14792,7 +14793,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f t="shared" si="5"/>
         <v>43647</v>
@@ -14813,7 +14814,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f t="shared" si="5"/>
         <v>43678</v>
@@ -14834,7 +14835,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f t="shared" si="5"/>
         <v>43709</v>
@@ -14855,7 +14856,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f t="shared" si="5"/>
         <v>43739</v>
@@ -14876,7 +14877,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <f t="shared" si="5"/>
         <v>43770</v>
@@ -14897,7 +14898,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f t="shared" si="5"/>
         <v>43800</v>
@@ -14924,7 +14925,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>66</v>
@@ -14946,7 +14947,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="47" t="s">
         <v>209</v>
       </c>
@@ -14964,7 +14965,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <f>EDATE(A476,1)</f>
         <v>43831</v>
@@ -14989,7 +14990,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>336</v>
@@ -15009,7 +15010,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f>EDATE(A479,1)</f>
         <v>43862</v>
@@ -15030,7 +15031,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f t="shared" si="5"/>
         <v>43891</v>
@@ -15051,7 +15052,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f t="shared" si="5"/>
         <v>43922</v>
@@ -15072,7 +15073,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <f t="shared" si="5"/>
         <v>43952</v>
@@ -15093,7 +15094,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <f t="shared" si="5"/>
         <v>43983</v>
@@ -15114,7 +15115,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <f t="shared" si="5"/>
         <v>44013</v>
@@ -15135,7 +15136,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f t="shared" si="5"/>
         <v>44044</v>
@@ -15156,7 +15157,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f t="shared" si="5"/>
         <v>44075</v>
@@ -15183,7 +15184,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <f t="shared" si="5"/>
         <v>44105</v>
@@ -15204,7 +15205,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f t="shared" si="5"/>
         <v>44136</v>
@@ -15225,7 +15226,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f t="shared" si="5"/>
         <v>44166</v>
@@ -15252,7 +15253,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="47" t="s">
         <v>210</v>
       </c>
@@ -15270,7 +15271,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f>EDATE(A491,1)</f>
         <v>44197</v>
@@ -15291,7 +15292,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <f t="shared" si="5"/>
         <v>44228</v>
@@ -15316,7 +15317,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <f t="shared" si="5"/>
         <v>44256</v>
@@ -15337,7 +15338,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <f t="shared" si="5"/>
         <v>44287</v>
@@ -15358,7 +15359,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f t="shared" si="5"/>
         <v>44317</v>
@@ -15379,7 +15380,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f t="shared" si="5"/>
         <v>44348</v>
@@ -15400,7 +15401,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f t="shared" si="5"/>
         <v>44378</v>
@@ -15421,7 +15422,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f t="shared" si="5"/>
         <v>44409</v>
@@ -15442,7 +15443,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="5"/>
         <v>44440</v>
@@ -15463,7 +15464,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f t="shared" si="5"/>
         <v>44470</v>
@@ -15484,7 +15485,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f t="shared" si="5"/>
         <v>44501</v>
@@ -15505,7 +15506,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <f t="shared" si="5"/>
         <v>44531</v>
@@ -15532,7 +15533,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>50</v>
@@ -15554,7 +15555,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="47" t="s">
         <v>211</v>
       </c>
@@ -15572,7 +15573,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A504,1)</f>
         <v>44562</v>
@@ -15593,7 +15594,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f t="shared" si="5"/>
         <v>44593</v>
@@ -15614,7 +15615,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f t="shared" si="5"/>
         <v>44621</v>
@@ -15635,7 +15636,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f t="shared" ref="A510:A514" si="6">EDATE(A509,1)</f>
         <v>44652</v>
@@ -15656,7 +15657,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <f t="shared" si="6"/>
         <v>44682</v>
@@ -15681,7 +15682,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>351</v>
@@ -15701,7 +15702,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <f>EDATE(A511,1)</f>
         <v>44713</v>
@@ -15722,7 +15723,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <f t="shared" si="6"/>
         <v>44743</v>
@@ -15749,7 +15750,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>349</v>
@@ -15771,7 +15772,7 @@
         <v>44770</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>350</v>
@@ -15791,7 +15792,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="48"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44774</v>
       </c>
@@ -15815,7 +15816,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44805</v>
       </c>
@@ -15841,7 +15842,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>44835</v>
       </c>
@@ -15867,7 +15868,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>347</v>
@@ -15887,7 +15888,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="48"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>44866</v>
       </c>
@@ -15913,7 +15914,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>346</v>
@@ -15933,7 +15934,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="48"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>44896</v>
       </c>
@@ -15959,7 +15960,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>345</v>
@@ -15979,7 +15980,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="47" t="s">
         <v>341</v>
       </c>
@@ -15997,7 +15998,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44927</v>
       </c>
@@ -16017,7 +16018,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>44958</v>
       </c>
@@ -16043,7 +16044,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>50</v>
@@ -16065,7 +16066,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>87</v>
@@ -16085,7 +16086,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>44986</v>
       </c>
@@ -16105,7 +16106,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>45017</v>
       </c>
@@ -16125,7 +16126,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>45047</v>
       </c>
@@ -16149,7 +16150,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>48</v>
@@ -16171,7 +16172,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>45078</v>
       </c>
@@ -16191,7 +16192,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>45108</v>
       </c>
@@ -16215,7 +16216,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>45139</v>
       </c>
@@ -16235,7 +16236,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>45170</v>
       </c>
@@ -16255,7 +16256,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>45200</v>
       </c>
@@ -16275,7 +16276,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>45231</v>
       </c>
@@ -16301,7 +16302,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>91</v>
@@ -16323,22 +16324,24 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>45261</v>
       </c>
       <c r="B541" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C541" s="13"/>
+      <c r="C541" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D541" s="39">
         <v>2</v>
       </c>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
-      <c r="G541" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G541" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H541" s="39"/>
       <c r="I541" s="9"/>
@@ -16347,7 +16350,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="47" t="s">
         <v>352</v>
       </c>
@@ -16365,29 +16368,33 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>45292</v>
       </c>
       <c r="B543" s="20"/>
-      <c r="C543" s="13"/>
+      <c r="C543" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D543" s="39"/>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
-      <c r="G543" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G543" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H543" s="39"/>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>45323</v>
       </c>
-      <c r="B544" s="20"/>
+      <c r="B544" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C544" s="13"/>
       <c r="D544" s="39"/>
       <c r="E544" s="9"/>
@@ -16396,12 +16403,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H544" s="39"/>
+      <c r="H544" s="39">
+        <v>1</v>
+      </c>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="20"/>
-    </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K544" s="48">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>45352</v>
       </c>
@@ -16419,7 +16430,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>45383</v>
       </c>
@@ -16437,7 +16448,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>45413</v>
       </c>
@@ -16455,7 +16466,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>45444</v>
       </c>
@@ -16473,7 +16484,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>45474</v>
       </c>
@@ -16491,7 +16502,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>45505</v>
       </c>
@@ -16509,7 +16520,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>45536</v>
       </c>
@@ -16527,7 +16538,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>45566</v>
       </c>
@@ -16545,7 +16556,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>45597</v>
       </c>
@@ -16563,7 +16574,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>45627</v>
       </c>
@@ -16581,7 +16592,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>45658</v>
       </c>
@@ -16599,7 +16610,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>45689</v>
       </c>
@@ -16617,7 +16628,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>45717</v>
       </c>
@@ -16635,7 +16646,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>45748</v>
       </c>
@@ -16653,7 +16664,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>45778</v>
       </c>
@@ -16671,7 +16682,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>45809</v>
       </c>
@@ -16689,7 +16700,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>45839</v>
       </c>
@@ -16707,7 +16718,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>45870</v>
       </c>
@@ -16725,7 +16736,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16741,7 +16752,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16757,7 +16768,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16773,7 +16784,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="51"/>
       <c r="B566" s="15"/>
       <c r="C566" s="41"/>
@@ -16804,10 +16815,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16830,7 +16841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16838,21 +16849,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -16865,7 +16876,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16894,7 +16905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>32.087000000000003</v>
       </c>
@@ -16922,17 +16933,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>343</v>
       </c>
@@ -16956,10 +16967,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>297.91599999999994</v>
+        <v>301.91599999999994</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -16987,7 +16998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17013,7 +17024,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17039,7 +17050,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17065,7 +17076,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17091,7 +17102,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17117,7 +17128,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17143,7 +17154,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17169,7 +17180,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17189,7 +17200,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17209,7 +17220,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17229,7 +17240,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17250,7 +17261,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17271,7 +17282,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17292,7 +17303,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17313,7 +17324,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17334,7 +17345,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17355,7 +17366,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17376,7 +17387,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17397,7 +17408,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17418,7 +17429,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17439,7 +17450,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17460,7 +17471,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17481,7 +17492,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17502,7 +17513,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17523,7 +17534,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17544,7 +17555,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17565,7 +17576,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17586,7 +17597,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17607,7 +17618,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17628,7 +17639,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17649,7 +17660,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17658,7 +17669,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17667,7 +17678,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17676,7 +17687,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17685,7 +17696,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17694,7 +17705,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17703,7 +17714,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17712,7 +17723,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17721,7 +17732,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17730,7 +17741,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17739,7 +17750,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17748,7 +17759,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17757,7 +17768,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17766,7 +17777,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17775,7 +17786,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17784,7 +17795,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17793,7 +17804,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17802,7 +17813,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17811,7 +17822,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17820,7 +17831,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17829,7 +17840,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17838,7 +17849,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17847,7 +17858,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17856,7 +17867,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17865,7 +17876,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17874,7 +17885,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17883,7 +17894,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17892,7 +17903,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17901,7 +17912,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17910,7 +17921,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
